--- a/Example_Implementations/Example_2.xlsx
+++ b/Example_Implementations/Example_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A101135-CA54-43D4-AC75-3AC385DA74D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C99CD8-307B-4E45-A53B-5E5E2ADFC4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="4650" windowWidth="27075" windowHeight="15000" xr2:uid="{94D6FA02-3BD5-4F95-BA04-B61DC13561F1}"/>
+    <workbookView xWindow="38430" yWindow="780" windowWidth="31890" windowHeight="20505" xr2:uid="{94D6FA02-3BD5-4F95-BA04-B61DC13561F1}"/>
   </bookViews>
   <sheets>
     <sheet name="CMM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
   <si>
     <t>Category</t>
   </si>
@@ -47,9 +47,6 @@
     <t>The Red Team knows which defensive tools are in place</t>
   </si>
   <si>
-    <t>SMEs from other teams validate a register of software and services in the environment</t>
-  </si>
-  <si>
     <t>Knowledgebase</t>
   </si>
   <si>
@@ -218,30 +215,6 @@
     <t>The Red Team's test environment matches the target organization's larger security stack, like configurations or other services, and deployment is automated if managed within the team</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>organization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> maintains a separate test environment for collaborative operations that can be reconfigured to test different elements of the technology stack without affecting production</t>
-    </r>
-  </si>
-  <si>
     <t>Relationships with Engineering Teams (Enterprise/endpoint/server architecture and engineering, detection engineering, etc.)</t>
   </si>
   <si>
@@ -254,9 +227,6 @@
     <t>The Red Team occasionally shares operational knowledge with the broader organization (other segments or the greater security population) on a periodic basis</t>
   </si>
   <si>
-    <t>The Red Team receives timely reporting from Cyber Threat Intelligence related to current threats to the organization or industry</t>
-  </si>
-  <si>
     <t>Red Team approvals are limited to the minimum number of parties required for coverage</t>
   </si>
   <si>
@@ -281,9 +251,6 @@
     <t>Relationship with Governance, Risk, and Compliance (GRC)</t>
   </si>
   <si>
-    <t>Red Team findings are communicated to risk owners but don't align to organizational definitions</t>
-  </si>
-  <si>
     <t>Relationship with Human Resources (HR)</t>
   </si>
   <si>
@@ -308,15 +275,6 @@
     <t>The Red Team proactively incorporates prior Legal counsel or input into its rules of engagement or future operational practices</t>
   </si>
   <si>
-    <t>Red Team findings are tracked by remediation teams but only informally communicated with the risk management team</t>
-  </si>
-  <si>
-    <t>Red Team and GRC meet on a recurring basis to align definitions on impact and risk ratings</t>
-  </si>
-  <si>
-    <t>GRC and Red Team routinely discuss organizational risks and use these discussions to drive operations</t>
-  </si>
-  <si>
     <t>The Red Team is not fully distinguished from other offensive testing</t>
   </si>
   <si>
@@ -359,144 +317,9 @@
     <t>The Red Team conducts a consistent mix of overt and covert operations to address different needs</t>
   </si>
   <si>
-    <r>
-      <t>The Red Team has a common</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, secured knowledgebase that is irregularly updated</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The Red Team has a common</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, secured knowledge base that has undergone review and addresses most frequent needs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The Red Team has a common</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, secured knowledge base that undergoes regular review for utility and is routinely updated as part of any actions the Red Team takes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Operations leverage Cyber Threat Intelligence to derive objectives and are planned out at least one quarter; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the Red Team has a defined intake process for suggestions and operational needs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team has a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>roadmap of current and future work in a distributed tool; leadership is responsible for accountability</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The Red Team has modified</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, or can modify, tooling; C2 frameworks are current and capable of meeting operational needs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Custom or other tools accomplish the majority of operational needs; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tools support automation or scaled execution of routine tasks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team leverages automated deployments for infrastructure; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Red Team infrastructure security is self-assessed</t>
-    </r>
-  </si>
-  <si>
     <t>The Red Team's infrastructure deployment is well documented to expedite manual configuration; infrastructure configuration accounts for best practice OPSEC concerns</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The Red Team's infrastructure is easily customized; infrastructure configuration accounts for advanced OPSEC concerns </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and undergoes a third-party assessment (another team, whether internal or external to the organization); the Red Team uses operational variety in C2 channels</t>
-    </r>
-  </si>
-  <si>
     <t>Operation objectives are selected by individual interest or urgent need; planning may not include input from the whole team; operations are planned within a few weeks of commencement</t>
   </si>
   <si>
@@ -506,67 +329,6 @@
     <t>Operations are based on objective criteria that consider business needs, threat intelligence,  criticality, and/or other organizationally defined measures; unscheduled operations can be added ad hoc to address urgent issues without impacting other deliverables</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Red Team operations are approved only by the first-line Red Team leader without executive leadership knowledge; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> higher level leadership (VP, CISO, etc. - organization dependent) is involved in approval for most Red Team operational aspects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Operations are socialized with the leadership directly above the Red Team; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Red Team approvals require individual, executive approval for operations</t>
-    </r>
-  </si>
-  <si>
     <t>The Red Team does not share operation details beyond the responsible risk owner; findings are possibly informally shared with defensive teams</t>
   </si>
   <si>
@@ -585,315 +347,18 @@
     <t>Relationships with Responders (SOC, IR, Physical etc.)</t>
   </si>
   <si>
-    <r>
-      <t>Responders identified and leveraged as stakeholders for the Red Team, and the Red Team has a documented deconfliction process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; response teams and Red Team meet on a recurring, scheduled basis to discuss operational needs or other relevant topics, like metrics or collaborative goals </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Red Team understands and leverages response teams' concerns when planning operations; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Red Team operations impact engineering and architecture decisions during planning or before implementation is complete; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unscheduled interactions but with identified points of contact; subsets of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>teams converse and share knowledge (e.g., manager to manager or individual contributor to individual contributor)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unscheduled interactions but with identified points of contact; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subsets of the teams converse and share knowledge (e.g., manager to manager or individual contributor to individual contributor)); there's a general understanding of deconfliction processes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unscheduled interactions but with identified points of contact; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subsets of the teams converse and share knowledge (e.g., manager to manager or individual contributor to individual contributor)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The teams collaboratively create adversary emulation operation plans and objectives to accurately emulate selected threat actors; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
-    </r>
-  </si>
-  <si>
-    <t>Red Team is a stakeholder in crafting the organization's risk definitions</t>
-  </si>
-  <si>
-    <t>HR partners are advised, and provides counsel, on operational rules of engagements during planning</t>
-  </si>
-  <si>
-    <r>
-      <t>Segment and security leadership receive operational readouts, scheduled in advance; Red Team mission understood; l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eadership reactively engages the Red Team for support based on existing interactions</t>
-    </r>
-  </si>
-  <si>
     <t>The Red Team has consistently demonstrated value and impact resulting in leadership at segment or security levels actively engaging Red Team to influence organization decisions</t>
   </si>
   <si>
-    <r>
-      <t>Operations are a mix of third party and internal efforts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> due to operational knowledge deficiencies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Red Team tactics applied without </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prioritization of Red Team OPSEC; internal capabilities limited to common TTPs</t>
-    </r>
-  </si>
-  <si>
     <t>The Red Team modifies common TTPs to address operation needs; the Red Team collectively has deep knowledge of common software / services / technologies, such as Active Directory or a CSP in use; the Red Team has identified specializations aligned to operation phases or needs</t>
   </si>
   <si>
     <t>Red Team operations often result in noteworthy findings based on operation objectives; the Red Team is well versed / highly skilled in defense evasion tactics; Red Team has expertise in less common technologies present in the environment; Red Team specialists are considered SMEs in their operational focuses</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The Red Team </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>has resiliency to achieve operational goals despite setbacks; the Red Team can vary tradecraft and technology to match operational or Cyber Threat Intelligence requirements; the Red Team has the staffing, support, and resources necessary to continuously respond to offensive testing needs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>employs basic scripting knowledge</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Red Team creates some custom solutions beyond basic scripts with no formal development processes, such as source control or code style guides</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Red Team develops new implementations of common TTPs to avoid signature detection; code adheres to basic tenets of development, source is controlled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The Red Team create</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s custom solutions to address operation needs, such as stage 0s or implants; source code undergoes some automated checks for style or errors; code undergoes unit and functional testing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>develops advanced tooling, including custom C2 frameworks, to address operational needs; the team has an automated CI (and CD, if needed) pipeline; the team has dedicated developers</t>
-    </r>
-  </si>
-  <si>
     <t>Training or development opportunities are infrequently sought on a team or individual level; time for training or development is not consistently available</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Time is provided to fill immediate knowledge gaps </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or maintain existing certifications; the team has  de facto team roles; seniority levels are generally understood</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">General Red Team needs are identified at most semi-annually; funding and time set aside for selected courses </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or research opportunities; team roles and seniority levels are well defined</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Training and development plans are based on individual needs drawn from skills assessments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (individual or team); team knowledge gaps addressed periodically</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Team members are encouraged and supported in identifying individual research opportunities to improve themselves and the team; internal Red Team training available for new or junior Red Team members</t>
-    </r>
-  </si>
-  <si>
     <t>In addition to operations, the Red Team provides predictive (adversarial) analysis to architecture reviews, table top exercises, or other defensive needs</t>
   </si>
   <si>
@@ -901,36 +366,6 @@
   </si>
   <si>
     <t>The Red Team shares operational knowledge within the Red Team and occasionally with blue team partners on high severity issues</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team routinely shares operational knowledge at different levels of the organization; the Red Team contributes to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operationally relevant open source projects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team pursues and obtains public speaking engagements; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the Red Team has continuous industry engagement</t>
-    </r>
   </si>
   <si>
     <t>Definitions</t>
@@ -1043,58 +478,6 @@
     <t>The Red Team is included in meetings discussing major technology changes that affect the organization's security posture, such as changing EDR vendors or acquiring subsidiaries whose networks will be merged</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The Red Team is recognized as industry contributors and features at security conferences </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and/or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has publicly shared a tool / a TTP / knowledge that is widely adopted</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team operates as individuals and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>might</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> take notes to facilitate improvement</t>
-    </r>
-  </si>
-  <si>
     <t>Data sources tracking metrics are fed into an automated business intelligence platform</t>
   </si>
   <si>
@@ -1113,52 +496,7 @@
     <t>SMEs identified on most relevant engineering teams to aid in operations; engineering teams receive appropriate Red Team reporting for their respective areas</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Engineering teams and Red Team meet on a recurring, scheduled basis to discuss pending changes to the environment; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the teams have scheduled interactions to share knowledge and build camaraderie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Red Team and Cyber Threat Intelligence share information on a recurring, scheduled basis, such as assorted TTPs currently observed in the wild, and this information informs Red Team operations, techniques, or procedures;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the teams have scheduled interactions to share knowledge and build camaraderie</t>
-    </r>
-  </si>
-  <si>
     <t>Operational situations that have HR implications requiring consultation are clearly identified and documented</t>
-  </si>
-  <si>
-    <r>
-      <t>The Red Team has recurring, scheduled time with security and organizational leadership for topics outside of operation findings; leadership supports organization-wide efforts to enhance the value of testing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; the Red Team seeks out and understands leadership's concerns to formulate operations</t>
-    </r>
   </si>
   <si>
     <t>This CMM applies to internal red teams more so than consultancies. There are elements that a consultancy would not need to address, and there are likely areas that apply to consultancies missing from the included subjects.</t>
@@ -1242,12 +580,168 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Findings Management</t>
+  </si>
+  <si>
+    <t>Red Team responsible for tracking and closing all findings; no formal handoff process</t>
+  </si>
+  <si>
+    <t>Informal handoff to remediation teams; criticality does not align to organizational definitions</t>
+  </si>
+  <si>
+    <t>Documented handoff process to a defined risk management team (e.g., GRC) who tracks the findings to closure; Red Team provides advisory support; risk ratings align to industry best practices</t>
+  </si>
+  <si>
+    <t>The Red Team supports ad hoc retesting (where retesting is feasible) of remediated issues; automated dashboards allow the Red Team to track finding and remediation metrics; Red Team findings align to organizational risk definitions and GRC frameworks</t>
+  </si>
+  <si>
+    <t>The Red Team includes time for retesting (where retesting is feasible) as part of operation planning</t>
+  </si>
+  <si>
+    <t>The Red Team operates as individuals and might take notes to facilitate improvement</t>
+  </si>
+  <si>
+    <t>The Red Team has a common, secured knowledgebase that is irregularly updated</t>
+  </si>
+  <si>
+    <t>The Red Team has a common, secured knowledge base that has undergone review and addresses most frequent needs</t>
+  </si>
+  <si>
+    <t>The Red Team has a common, secured knowledge base that undergoes regular review for utility and is routinely updated as part of any actions the Red Team takes</t>
+  </si>
+  <si>
+    <t>The Red Team has a roadmap of current and future work in a distributed tool; leadership is responsible for accountability</t>
+  </si>
+  <si>
+    <t>Operations leverage Cyber Threat Intelligence to derive objectives and are planned out at least one quarter; the Red Team has a defined intake process for suggestions and operational needs</t>
+  </si>
+  <si>
+    <t>Red Team operations are approved only by the first-line Red Team leader without executive leadership knowledge; OR higher level leadership (VP, CISO, etc. - organization dependent) is involved in approval for most Red Team operational aspects</t>
+  </si>
+  <si>
+    <t>Operations are socialized with the leadership directly above the Red Team; OR Red Team approvals require individual, executive approval for operations</t>
+  </si>
+  <si>
+    <t>The Red Team has modified, or can modify, tooling; C2 frameworks are current and capable of meeting operational needs</t>
+  </si>
+  <si>
+    <t>Custom or other tools accomplish the majority of operational needs; tools support automation or scaled execution of routine tasks</t>
+  </si>
+  <si>
+    <t>The Red Team leverages automated deployments for infrastructure; Red Team infrastructure security is self-assessed</t>
+  </si>
+  <si>
+    <t>The Red Team's infrastructure is easily customized; infrastructure configuration accounts for advanced OPSEC concerns and undergoes a third-party assessment (another team, whether internal or external to the organization); the Red Team uses operational variety in C2 channels</t>
+  </si>
+  <si>
+    <t>The organization maintains a separate test environment for collaborative operations that can be reconfigured to test different elements of the technology stack without affecting production</t>
+  </si>
+  <si>
+    <t>Unscheduled interactions but with identified points of contact; subsets of the teams converse and share knowledge (e.g., manager to manager or individual contributor to individual contributor); there's a general understanding of deconfliction processes</t>
+  </si>
+  <si>
+    <t>The Red Team has defined, standing requirements with the CTI team related to emerging TTPs and current threats to the organization</t>
+  </si>
+  <si>
+    <t>Red Team and Cyber Threat Intelligence share information on a recurring, scheduled basi and this information informs Red Team operation, or procedures</t>
+  </si>
+  <si>
+    <t>The Red Team engages with system owners rather than GRC for findings discussions</t>
+  </si>
+  <si>
+    <t>The Red Team is a normal user of GRC processes rather than a preferred stakeholder</t>
+  </si>
+  <si>
+    <t>Red Team and GRC agree on shared risk taxonomy and rating criteria; GRC helps align findings to business impact</t>
+  </si>
+  <si>
+    <t>Red Team contributes to risk assessment methodologies and participates in risk committees</t>
+  </si>
+  <si>
+    <t>GRC and Red Team routinely discuss organizational risks and use these discussions to drive operations and organizational risk strategy</t>
+  </si>
+  <si>
+    <t>HR partners are advised and provide counsel on operational rules of engagements during planning</t>
+  </si>
+  <si>
+    <t>The Red Team receives notice of changes to in-scope assets or technology as changes are made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responders identified and leveraged as stakeholders for the Red Team, and the Red Team has a documented deconfliction process; response teams and Red Team meet on a recurring, scheduled basis to discuss operational needs or other relevant topics, like metrics or collaborative goals </t>
+  </si>
+  <si>
+    <t>Red Team understands and leverages response teams' concerns when planning operations; strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
+  </si>
+  <si>
+    <t>Unscheduled interactions but with identified points of contact; subsets of the teams converse and share knowledge (e.g., manager to manager or individual contributor to individual contributor)</t>
+  </si>
+  <si>
+    <t>Engineering teams and Red Team meet on a recurring, scheduled basis to discuss pending changes to the environment; the teams have scheduled interactions to share knowledge and build camaraderie</t>
+  </si>
+  <si>
+    <t>Red Team operations impact engineering and architecture decisions during planning or before implementation is complete; strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
+  </si>
+  <si>
+    <t>The teams collaboratively create adversary emulation operation plans and objectives to accurately emulate selected threat actors; strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
+  </si>
+  <si>
+    <t>Segment and security leadership receive operational readouts, scheduled in advance; Red Team mission understood; leadership reactively engages the Red Team for support based on existing interactions</t>
+  </si>
+  <si>
+    <t>The Red Team has recurring, scheduled time with security and organizational leadership for topics outside of operation findings; leadership supports organization-wide efforts to enhance the value of testing; the Red Team seeks out and understands leadership's concerns to formulate operations</t>
+  </si>
+  <si>
+    <t>Operations are a mix of third party and internal efforts due to operational knowledge deficiencies</t>
+  </si>
+  <si>
+    <t>Red Team tactics applied without prioritization of Red Team OPSEC; internal capabilities limited to common TTPs</t>
+  </si>
+  <si>
+    <t>The Red Team has resiliency to achieve operational goals despite setbacks; the Red Team can vary tradecraft and technology to match operational or Cyber Threat Intelligence requirements; the Red Team has the staffing, support, and resources necessary to continuously respond to offensive testing needs</t>
+  </si>
+  <si>
+    <t>The Red Team employs basic scripting knowledge</t>
+  </si>
+  <si>
+    <t>The Red Team creates some custom solutions beyond basic scripts with no formal development processes, such as source control or code style guides</t>
+  </si>
+  <si>
+    <t>The Red Team develops new implementations of common TTPs to avoid signature detection; code adheres to basic tenets of development, source is controlled</t>
+  </si>
+  <si>
+    <t>The Red Team creates custom solutions to address operation needs, such as stage 0s or implants; source code undergoes some automated checks for style or errors; code undergoes unit and functional testing</t>
+  </si>
+  <si>
+    <t>The Red Team develops advanced tooling, including custom C2 frameworks, to address operational needs; the team has an automated CI (and CD, if needed) pipeline; the team has dedicated developers</t>
+  </si>
+  <si>
+    <t>Time is provided to fill immediate knowledge gaps or maintain existing certifications; the team has  de facto team roles; seniority levels are generally understood</t>
+  </si>
+  <si>
+    <t>General Red Team needs are identified at most semi-annually; funding and time set aside for selected courses or research opportunities; team roles and seniority levels are well defined</t>
+  </si>
+  <si>
+    <t>Training and development plans are based on individual needs drawn from skills assessments (individual or team); team knowledge gaps addressed periodically</t>
+  </si>
+  <si>
+    <t>Team members are encouraged and supported in identifying individual research opportunities to improve themselves and the team; internal Red Team training available for new or junior Red Team members</t>
+  </si>
+  <si>
+    <t>The Red Team routinely shares operational knowledge at different levels of the organization; the Red Team contributes to operationally relevant open source projects</t>
+  </si>
+  <si>
+    <t>The Red Team pursues and obtains public speaking engagements; the Red Team has continuous industry engagement</t>
+  </si>
+  <si>
+    <t>The Red Team is recognized as industry contributors and regularly features at security conferences and/or has publicly shared a tool / a TTP / knowledge that is widely adopted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,14 +777,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1354,7 +840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,12 +880,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1501,11 +981,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1520,15 +1000,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1547,19 +1027,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1568,41 +1042,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1820,15 +1347,13 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Brent Harrell" id="{77E886E6-30D0-4E0F-8792-3B1D90F4911C}" userId="S::BHarrell4@humana.com::9695d412-c2cd-4134-9e45-b08a57d97f60" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1866,7 +1391,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1972,7 +1497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2114,18 +1639,10 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
-</file>
-
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G17" dT="2022-12-14T18:28:23.05" personId="{77E886E6-30D0-4E0F-8792-3B1D90F4911C}" id="{9E706013-C820-4DF1-BF76-353CB642232D}">
-    <text>Revisit this language. Is in contrast to operational planning which has this type of relationship at a lower level; also conflicts with lower levels within itself where conversations are happening but apparently not yielding this fruit</text>
-  </threadedComment>
-</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2133,19 +1650,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="33" customWidth="1"/>
     <col min="3" max="7" width="34.5703125" style="22" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="3" customWidth="1"/>
@@ -2160,25 +1677,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2191,8 +1708,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="45">
-        <f>AVERAGE(H3:H11)</f>
+      <c r="H2" s="42">
+        <f>AVERAGE(H3:H12)</f>
         <v>1</v>
       </c>
       <c r="I2" s="20"/>
@@ -2200,24 +1717,24 @@
     <row r="3" spans="1:9" ht="125.25" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>99</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="38">
+        <v>131</v>
+      </c>
+      <c r="H3" s="36">
         <v>1</v>
       </c>
       <c r="I3" s="21"/>
@@ -2225,48 +1742,48 @@
     <row r="4" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="39">
+        <v>148</v>
+      </c>
+      <c r="H4" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="38">
+        <v>122</v>
+      </c>
+      <c r="H5" s="36">
         <v>1</v>
       </c>
       <c r="I5" s="21"/>
@@ -2274,48 +1791,48 @@
     <row r="6" spans="1:9" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="39">
+        <v>98</v>
+      </c>
+      <c r="H6" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="38">
+        <v>66</v>
+      </c>
+      <c r="H7" s="36">
         <v>1</v>
       </c>
       <c r="I7" s="21"/>
@@ -2323,751 +1840,756 @@
     <row r="8" spans="1:9" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="39">
+      <c r="H8" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="38">
+      <c r="H9" s="36">
         <v>1</v>
       </c>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="G11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="75.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
+      <c r="C12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="H12" s="38">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="40">
-        <v>1</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="44">
-        <f>AVERAGE(H13:H15)</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="40">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="41">
+        <f>AVERAGE(H14:H16)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>110</v>
+        <v>153</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H14" s="38">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="38">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="40">
+        <f>AVERAGE(H18:H28)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="1:9" ht="135.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="40">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="43">
-        <f>AVERAGE(H17:H27)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" ht="135.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="D19" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="40">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>170</v>
+      <c r="F19" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="40">
+        <v>172</v>
+      </c>
+      <c r="H19" s="36">
         <v>1</v>
       </c>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="15" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="41">
+        <v>173</v>
+      </c>
+      <c r="H20" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>85</v>
+        <v>35</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>130</v>
+        <v>77</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="40">
+        <v>78</v>
+      </c>
+      <c r="H21" s="36">
         <v>1</v>
       </c>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>131</v>
+        <v>161</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>80</v>
+        <v>163</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="135" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="H22" s="36">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="36">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="135" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="E24" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="36">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="40">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="30" t="s">
+      <c r="C26" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="105" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="40">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" ht="105" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="30" t="s">
+      <c r="C27" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="36">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="30" t="s">
+      <c r="C28" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="36">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="40">
-        <v>1</v>
-      </c>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="42">
-        <f>AVERAGE(H29:H32)</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" ht="116.45" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="40">
-        <v>1</v>
-      </c>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" ht="116.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="39">
+        <f>AVERAGE(H30:H33)</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" ht="116.45" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="15" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>47</v>
+        <v>109</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H30" s="36">
+        <v>1</v>
+      </c>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="116.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>52</v>
+        <v>110</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="40">
+        <v>47</v>
+      </c>
+      <c r="H31" s="36">
         <v>1</v>
       </c>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9" ht="75.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>151</v>
+        <v>48</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>152</v>
+        <v>50</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="46">
-        <f>(AVERAGE(H3:H11,H13:H15,H17:H27,H29:H32))</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>119</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1</v>
+      </c>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="36">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="43">
+        <f>(AVERAGE(H3:H12,H14:H16,H18:H28,H30:H33))</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B3:G11 B13:G15 B17:G27 B29:G32">
-    <cfRule type="expression" dxfId="28" priority="35">
+  <conditionalFormatting sqref="B14:G14 B16:G16 B32:G32">
+    <cfRule type="expression" dxfId="36" priority="52">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="27" priority="28">
+  <conditionalFormatting sqref="H3:I3">
+    <cfRule type="expression" dxfId="35" priority="44">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="26" priority="27">
+  <conditionalFormatting sqref="H5:I5">
+    <cfRule type="expression" dxfId="34" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="25" priority="26">
+  <conditionalFormatting sqref="H7:I7">
+    <cfRule type="expression" dxfId="33" priority="40">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="24" priority="25">
+  <conditionalFormatting sqref="H9:I10">
+    <cfRule type="expression" dxfId="32" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="23" priority="24">
+  <conditionalFormatting sqref="H12:I12">
+    <cfRule type="expression" dxfId="31" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="22" priority="23">
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:I9">
-    <cfRule type="expression" dxfId="21" priority="22">
+  <conditionalFormatting sqref="H16:I16">
+    <cfRule type="expression" dxfId="29" priority="26">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I32">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:G12">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:I11">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="19" priority="20">
+  <conditionalFormatting sqref="B15:G15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="18" priority="19">
+  <conditionalFormatting sqref="H15:I15">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="17" priority="18">
+  <conditionalFormatting sqref="H19:I19 H22:I22 H25:I25 H28:I28">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="16" priority="17">
+  <conditionalFormatting sqref="B18:G28">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="15" priority="16">
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="14" priority="15">
+  <conditionalFormatting sqref="H23:I23">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="13" priority="14">
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="12" priority="13">
+  <conditionalFormatting sqref="B33:G33">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="H33:I33">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="10" priority="11">
+  <conditionalFormatting sqref="B31:G31">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="9" priority="10">
+  <conditionalFormatting sqref="H31:I31">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="H30:I30">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B30:G30">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3091,52 +2613,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="387" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
